--- a/PA4/DijkstraPlot.xlsx
+++ b/PA4/DijkstraPlot.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gangulya/Google Drive - Personal/Teaching/COMPSCI433/Programming/PA4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachharvey/Documents/Development/workspace/CS433PA4/PA4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D0C61-C96A-2A44-A440-06144F40A904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF37B2F-E306-E44E-A065-ACAEB8F14AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="25580" windowHeight="16680" xr2:uid="{765FF810-B6B9-7E45-9570-A3C43977D5DC}"/>
+    <workbookView xWindow="11320" yWindow="2460" windowWidth="24520" windowHeight="16680" xr2:uid="{765FF810-B6B9-7E45-9570-A3C43977D5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -263,6 +272,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>118687.93878019426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>654704.38268572313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1073668.7528838494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2257962.6322050877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4228419.5787230469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7263413.1074546445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11950141.009190055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16021353.31642659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24696167.474764138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32647135.679793268</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -552,6 +591,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0520000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7904000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8771999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15356400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21926399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43506800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71920399999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83141600000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.131988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.696024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2278,7 +2347,7 @@
   <dimension ref="B4:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2312,7 +2381,10 @@
       <c r="D5" s="1">
         <v>29818</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <f>D5*LOG(C5,10)</f>
+        <v>118687.93878019426</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2324,7 +2396,10 @@
       <c r="D6" s="1">
         <v>138426</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <f>D6*LOG(C6,10)</f>
+        <v>654704.38268572313</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -2336,7 +2411,10 @@
       <c r="D7" s="1">
         <v>215116</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <f>D7*LOG(C7,10)</f>
+        <v>1073668.7528838494</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -2348,7 +2426,10 @@
       <c r="D8" s="1">
         <v>519244</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <f>D8*LOG(C8,10)</f>
+        <v>2257962.6322050877</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -2360,7 +2441,10 @@
       <c r="D9" s="1">
         <v>770328</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <f>D9*LOG(C9,10)</f>
+        <v>4228419.5787230469</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -2372,7 +2456,10 @@
       <c r="D10" s="1">
         <v>1270872</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <f>D10*LOG(C10,10)</f>
+        <v>7263413.1074546445</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -2384,7 +2471,10 @@
       <c r="D11" s="1">
         <v>2025634</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <f>D11*LOG(C11,10)</f>
+        <v>11950141.009190055</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -2396,7 +2486,10 @@
       <c r="D12" s="1">
         <v>2661102</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <f>D12*LOG(C12,10)</f>
+        <v>16021353.31642659</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -2408,7 +2501,10 @@
       <c r="D13" s="1">
         <v>3978298</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <f>D13*LOG(C13,10)</f>
+        <v>24696167.474764138</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -2420,7 +2516,10 @@
       <c r="D14" s="1">
         <v>5168318</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <f>D14*LOG(C14,10)</f>
+        <v>32647135.679793268</v>
+      </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
@@ -2434,61 +2533,81 @@
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>7.0520000000000001E-3</v>
+      </c>
     </row>
     <row r="21" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>2.7904000000000002E-2</v>
+      </c>
     </row>
     <row r="22" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>5.8771999999999998E-2</v>
+      </c>
     </row>
     <row r="23" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>0.15356400000000001</v>
+      </c>
     </row>
     <row r="24" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>0.21926399999999999</v>
+      </c>
     </row>
     <row r="25" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>0.43506800000000001</v>
+      </c>
     </row>
     <row r="26" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>0.71920399999999995</v>
+      </c>
     </row>
     <row r="27" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>0.83141600000000004</v>
+      </c>
     </row>
     <row r="28" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>1.131988</v>
+      </c>
     </row>
     <row r="29" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>1.696024</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
